--- a/2/Book1.xlsx
+++ b/2/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fanquan/Desktop/UCR-CS211-HPC/2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{155F2772-FB9E-2A47-921A-456FE4EDE968}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E69B53B6-E76B-474E-B08F-CA61E0AE8452}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14560" xr2:uid="{D22FBA1B-326E-FC46-9426-EA3FC3777402}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="7">
   <si>
     <t>N</t>
   </si>
@@ -400,10 +400,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E021D70-63E9-494B-A991-618812134DE9}">
-  <dimension ref="A1:O7"/>
+  <dimension ref="A1:O15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+      <selection activeCell="G9" sqref="G9:K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -732,8 +732,121 @@
         <v>3.1803670322057664</v>
       </c>
     </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="G9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="G10" s="1"/>
+      <c r="H10" t="s">
+        <v>3</v>
+      </c>
+      <c r="I10" t="s">
+        <v>4</v>
+      </c>
+      <c r="J10" t="s">
+        <v>5</v>
+      </c>
+      <c r="K10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="G11">
+        <v>1008</v>
+      </c>
+      <c r="H11">
+        <v>10.05265598027127</v>
+      </c>
+      <c r="I11">
+        <v>0.1836317685387534</v>
+      </c>
+      <c r="J11">
+        <v>0.53257882678653357</v>
+      </c>
+      <c r="K11">
+        <v>2.2676019800996672</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="G12">
+        <v>2016</v>
+      </c>
+      <c r="H12">
+        <v>11.411019883021419</v>
+      </c>
+      <c r="I12">
+        <v>0.18009185563045582</v>
+      </c>
+      <c r="J12">
+        <v>0.66490208775194437</v>
+      </c>
+      <c r="K12">
+        <v>2.8247420011948572</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="G13">
+        <v>3024</v>
+      </c>
+      <c r="H13">
+        <v>12.438564219812454</v>
+      </c>
+      <c r="I13">
+        <v>0.17901126021423724</v>
+      </c>
+      <c r="J13">
+        <v>0.73704731608000318</v>
+      </c>
+      <c r="K13">
+        <v>3.024776215048814</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="G14">
+        <v>4032</v>
+      </c>
+      <c r="H14">
+        <v>12.492503325847972</v>
+      </c>
+      <c r="I14">
+        <v>0.17946861812421755</v>
+      </c>
+      <c r="J14">
+        <v>0.74915367110081377</v>
+      </c>
+      <c r="K14">
+        <v>3.0447871300054099</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="G15">
+        <v>5040</v>
+      </c>
+      <c r="H15">
+        <v>13.194307116475205</v>
+      </c>
+      <c r="I15">
+        <v>0.1788245159278149</v>
+      </c>
+      <c r="J15">
+        <v>0.79344374535136075</v>
+      </c>
+      <c r="K15">
+        <v>3.1803670322057664</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="8">
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="G9:G10"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:E1"/>
